--- a/pt-br/docs/fdm/artefatos/check_list_metodologia_citsmart_fdm.xlsx
+++ b/pt-br/docs/fdm/artefatos/check_list_metodologia_citsmart_fdm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katia.nunes\OneDrive - Citsmart Company\Metodologia_Alterados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katia.nunes\OneDrive - Citsmart Company\Metodologia_Alterados\Metodologia_Português\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="5_{742360BC-2673-48B6-B58C-902F996D3FAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C379C968-FA56-4B40-B640-40A969BD278F}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="5_{742360BC-2673-48B6-B58C-902F996D3FAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FD1B2B5D-C3E0-4AEF-9CDC-3841A2D3230C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1680,6 +1680,9 @@
   </cellStyleXfs>
   <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1851,9 +1854,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2281,25 +2281,25 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="77" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="77" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="77" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="67.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="10" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="67.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>3</v>
       </c>
@@ -2310,61 +2310,61 @@
       <c r="F1" s="62"/>
       <c r="G1" s="62"/>
       <c r="H1" s="63"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="49"/>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="50"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="64" t="s">
@@ -2376,154 +2376,154 @@
       <c r="F5" s="65"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
-      <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" ht="101.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" ht="101.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="75"/>
       <c r="B6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-    </row>
-    <row r="7" spans="1:9" ht="107.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="1:9" ht="107.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="76"/>
       <c r="B7" s="79"/>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-    </row>
-    <row r="8" spans="1:9" ht="78" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="1:9" ht="78" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="77"/>
       <c r="B8" s="80"/>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="1:9" ht="117.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41" t="s">
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+    </row>
+    <row r="9" spans="1:9" ht="117.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-    </row>
-    <row r="10" spans="1:9" ht="94.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43" t="s">
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="1:9" ht="94.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="1:9" ht="109.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43" t="s">
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="1:9" ht="109.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
+      <c r="B11" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-    </row>
-    <row r="12" spans="1:9" ht="2.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:9" ht="2.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="71"/>
       <c r="B13" s="72"/>
       <c r="C13" s="72"/>
@@ -2531,11 +2531,11 @@
       <c r="E13" s="72"/>
       <c r="F13" s="72"/>
       <c r="G13" s="72"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="64" t="s">
@@ -2547,165 +2547,165 @@
       <c r="F14" s="65"/>
       <c r="G14" s="65"/>
       <c r="H14" s="65"/>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" ht="103.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="103.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="75"/>
       <c r="B15" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-    </row>
-    <row r="16" spans="1:9" ht="103.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:9" ht="103.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="76"/>
       <c r="B16" s="82"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-    </row>
-    <row r="17" spans="1:9" ht="103.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="1:9" ht="103.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="76"/>
       <c r="B17" s="82"/>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
-    </row>
-    <row r="18" spans="1:9" ht="105.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="1:9" ht="105.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="76"/>
       <c r="B18" s="82"/>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-    </row>
-    <row r="19" spans="1:9" ht="105.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="33" t="s">
+      <c r="H18" s="37"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="1:9" ht="105.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="41"/>
+      <c r="B19" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-    </row>
-    <row r="20" spans="1:9" ht="105.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="33" t="s">
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="1:9" ht="105.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="41"/>
+      <c r="B20" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-    </row>
-    <row r="21" spans="1:9" ht="103.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="43" t="s">
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="1:9" ht="103.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="41"/>
+      <c r="B21" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-    </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
       <c r="D22" s="66"/>
@@ -2713,10 +2713,10 @@
       <c r="F22" s="66"/>
       <c r="G22" s="66"/>
       <c r="H22" s="67"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="73" t="s">
@@ -2728,258 +2728,258 @@
       <c r="F23" s="74"/>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
-      <c r="I23" s="44"/>
-    </row>
-    <row r="24" spans="1:9" ht="126.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="1:9" ht="126.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="68" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-    </row>
-    <row r="25" spans="1:9" ht="260.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+    </row>
+    <row r="25" spans="1:9" ht="260.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="70"/>
       <c r="B25" s="68"/>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-    </row>
-    <row r="26" spans="1:9" ht="63" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+    </row>
+    <row r="26" spans="1:9" ht="63" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="69"/>
       <c r="B26" s="69"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-    </row>
-    <row r="27" spans="1:9" ht="94.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="58" t="s">
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+    </row>
+    <row r="27" spans="1:9" ht="94.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="57"/>
+      <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-    </row>
-    <row r="28" spans="1:9" ht="293.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+    </row>
+    <row r="28" spans="1:9" ht="293.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="58"/>
       <c r="B28" s="59"/>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-    </row>
-    <row r="29" spans="1:9" ht="174" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+    </row>
+    <row r="29" spans="1:9" ht="174" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="58"/>
       <c r="B29" s="59"/>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-    </row>
-    <row r="30" spans="1:9" ht="174" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+    </row>
+    <row r="30" spans="1:9" ht="174" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="58"/>
       <c r="B30" s="60"/>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-    </row>
-    <row r="31" spans="1:9" ht="150.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57" t="s">
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+    </row>
+    <row r="31" spans="1:9" ht="150.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-    </row>
-    <row r="32" spans="1:9" ht="168" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="33" t="s">
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+    </row>
+    <row r="32" spans="1:9" ht="168" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="58"/>
+      <c r="B32" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="51" t="s">
+      <c r="G32" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-    </row>
-    <row r="33" spans="1:9" ht="107.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
-      <c r="B33" s="33" t="s">
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+    </row>
+    <row r="33" spans="1:9" ht="107.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="58"/>
+      <c r="B33" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-    </row>
-    <row r="34" spans="1:9" ht="112.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
-      <c r="B34" s="33" t="s">
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+    </row>
+    <row r="34" spans="1:9" ht="112.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="58"/>
+      <c r="B34" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-    </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3000,7 +3000,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="1.1811023622047245" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="13" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"-,Negrito"&amp;18&amp;KA5CD39CHECKLIST&amp;R&amp;"-,Negrito"&amp;11V.1</oddHeader>
   </headerFooter>
